--- a/Test/excel/test.xlsx
+++ b/Test/excel/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,51 +454,70 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,7 +550,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -533,7 +564,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
